--- a/projects/Final project prep.xlsx
+++ b/projects/Final project prep.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/varunshankar/Documents/GitHub/VarunShankar1.github.io/projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341490BC-67B0-F748-91ED-D7C06E126B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB49D5A-A56D-B34C-BB4B-1C7DFD980EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{C5AB4864-C4A8-C146-97D2-C22F7F8745A1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{C5AB4864-C4A8-C146-97D2-C22F7F8745A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="6" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="172">
   <si>
     <t>POS</t>
   </si>
@@ -545,6 +545,21 @@
   </si>
   <si>
     <t>Signed/Claimed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Panthers built their core through the draft, taking players like Barkov, Huberdeau and Ekblad. They largely supplemented it with trades such as the one for Sam Bennett, Claude Giroux and Sam Reinhart. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Avalanche's best players, MacKinnon, Landeskog, Rantanen and Makar came in the draft. However, they made some key acquisitions via trade. Devon Toews was acquired for a 2nd round pick. Ssamuel Girard and Bowen Byram were acquired in the same trade, a 2017 one where Colorado traded away Matt Duchene. </t>
+  </si>
+  <si>
+    <t>The Hurricanes brought a good chunk of their team via lower draft picks. Players like Slavin and Aho were found after the first round and have become some of the best in the league. A good chunk of their team came via trade, with key forwards like Staal, Neiderreiter and Domi. The most interesting case here is Kotkaniemi, who was signed via offer sheet as a restricted free agent.</t>
+  </si>
+  <si>
+    <t>The Maple Leafs found their foundational stars in the top five of the draft, including a legitimate superstar in Auston Matthews. Their big free agent acquisition were John Tavares and TJ Brodie.</t>
+  </si>
+  <si>
+    <t>The Wild are an interesting case. They had to jettison two of their most expensive players a year ago and have incurred salary cap penalties because of it that will kick in next year. For now, their best player was found later in the draft. Kirill Kaprizov is a star, and he's complemented by a strong set of defensive forwards in Jordan Greenway and Jóel Eriksson Ek.</t>
   </si>
 </sst>
 </file>
@@ -621,7 +636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -630,6 +645,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6302,7 +6318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64DECE6D-561F-DB4D-81C6-F63E8FD0C1E9}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1:L4"/>
     </sheetView>
   </sheetViews>
@@ -6546,8 +6562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE3C5952-1E93-9743-85DB-A8529FABB959}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView zoomScale="144" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J3"/>
+    <sheetView zoomScale="115" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6710,6 +6726,9 @@
       </c>
       <c r="G8" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="I8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7089,8 +7108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F266F6F-AB9F-894B-8B62-5983F269779E}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView zoomScale="168" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J3"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7133,7 +7152,7 @@
       <c r="B2" s="2">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>49</v>
       </c>
       <c r="D2" s="2"/>
@@ -7141,7 +7160,7 @@
       <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="I2" t="s">
@@ -7158,7 +7177,7 @@
       <c r="B3" s="2">
         <v>29</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="8" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="2"/>
@@ -7166,7 +7185,7 @@
       <c r="F3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="8" t="s">
         <v>51</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -7183,7 +7202,7 @@
       <c r="B4" s="2">
         <v>96</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="8" t="s">
         <v>52</v>
       </c>
       <c r="D4" s="2"/>
@@ -7191,7 +7210,7 @@
       <c r="F4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="8" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7205,7 +7224,7 @@
       <c r="B6" s="2">
         <v>92</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="8" t="s">
         <v>55</v>
       </c>
       <c r="D6" s="2"/>
@@ -7213,7 +7232,7 @@
       <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -7224,7 +7243,7 @@
       <c r="B7" s="2">
         <v>91</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="8" t="s">
         <v>57</v>
       </c>
       <c r="D7" s="5"/>
@@ -7232,7 +7251,7 @@
       <c r="F7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7243,7 +7262,7 @@
       <c r="B8" s="2">
         <v>62</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="8" t="s">
         <v>58</v>
       </c>
       <c r="D8" s="2"/>
@@ -7251,12 +7270,15 @@
       <c r="F8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
+      <c r="I9" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -7265,7 +7287,7 @@
       <c r="B10" s="2">
         <v>95</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="8" t="s">
         <v>59</v>
       </c>
       <c r="D10" s="2"/>
@@ -7273,7 +7295,7 @@
       <c r="F10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7284,7 +7306,7 @@
       <c r="B11" s="2">
         <v>18</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="8" t="s">
         <v>60</v>
       </c>
       <c r="D11" s="2"/>
@@ -7292,7 +7314,7 @@
       <c r="F11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="8" t="s">
         <v>61</v>
       </c>
     </row>
@@ -7303,7 +7325,7 @@
       <c r="B12" s="2">
         <v>37</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="8" t="s">
         <v>62</v>
       </c>
       <c r="D12" s="2"/>
@@ -7311,7 +7333,7 @@
       <c r="F12" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7325,7 +7347,7 @@
       <c r="B14" s="2">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="8" t="s">
         <v>64</v>
       </c>
       <c r="D14" s="2"/>
@@ -7333,7 +7355,7 @@
       <c r="F14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -7344,7 +7366,7 @@
       <c r="B15" s="2">
         <v>78</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="8" t="s">
         <v>66</v>
       </c>
       <c r="D15" s="2"/>
@@ -7352,7 +7374,7 @@
       <c r="F15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7363,7 +7385,7 @@
       <c r="B16" s="2">
         <v>16</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="8" t="s">
         <v>67</v>
       </c>
       <c r="D16" s="2"/>
@@ -7371,7 +7393,7 @@
       <c r="F16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -7403,7 +7425,7 @@
       <c r="B18" s="2">
         <v>7</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="8" t="s">
         <v>68</v>
       </c>
       <c r="D18" s="2"/>
@@ -7411,7 +7433,7 @@
       <c r="F18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="8" t="s">
         <v>19</v>
       </c>
       <c r="J18" s="1"/>
@@ -7423,7 +7445,7 @@
       <c r="B19" s="2">
         <v>8</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="8" t="s">
         <v>69</v>
       </c>
       <c r="D19" s="2"/>
@@ -7431,7 +7453,7 @@
       <c r="F19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="8" t="s">
         <v>70</v>
       </c>
     </row>
@@ -7445,7 +7467,7 @@
       <c r="B21" s="2">
         <v>49</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="8" t="s">
         <v>71</v>
       </c>
       <c r="D21" s="2"/>
@@ -7453,7 +7475,7 @@
       <c r="F21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7464,7 +7486,7 @@
       <c r="B22" s="2">
         <v>42</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="8" t="s">
         <v>72</v>
       </c>
       <c r="D22" s="2"/>
@@ -7472,7 +7494,7 @@
       <c r="F22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7486,7 +7508,7 @@
       <c r="B24" s="2">
         <v>4</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="8" t="s">
         <v>73</v>
       </c>
       <c r="D24" s="2"/>
@@ -7494,7 +7516,7 @@
       <c r="F24" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="8" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7505,7 +7527,7 @@
       <c r="B25" s="2">
         <v>6</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="8" t="s">
         <v>75</v>
       </c>
       <c r="D25" s="2"/>
@@ -7513,7 +7535,7 @@
       <c r="F25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7545,7 +7567,7 @@
       <c r="B27" s="2">
         <v>35</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="8" t="s">
         <v>76</v>
       </c>
       <c r="D27" s="2"/>
@@ -7553,7 +7575,7 @@
       <c r="F27" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7564,7 +7586,7 @@
       <c r="B28" s="2">
         <v>39</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="8" t="s">
         <v>77</v>
       </c>
       <c r="D28" s="2"/>
@@ -7572,64 +7594,22 @@
       <c r="F28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="8" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://www.capfriendly.com/players/valeri-nichushkin" xr:uid="{7AFC128D-8E6E-8344-B38A-69D2E1BC5E11}"/>
-    <hyperlink ref="G2" r:id="rId2" display="https://www.capfriendly.com/transactions/players/valeri-nichushkin" xr:uid="{C117FF3F-60D3-1C4C-B38C-4C2189B2793A}"/>
-    <hyperlink ref="C3" r:id="rId3" display="https://www.capfriendly.com/players/nathan-mackinnon" xr:uid="{7CD40BA6-68C1-7340-814D-4CCC435DD97B}"/>
-    <hyperlink ref="G3" r:id="rId4" display="https://www.capfriendly.com/transactions/players/nathan-mackinnon" xr:uid="{B0E67FF3-1689-E24A-83FF-ABFBE32EA88A}"/>
-    <hyperlink ref="C4" r:id="rId5" display="https://www.capfriendly.com/players/mikko-rantanen" xr:uid="{AB78616A-0EDE-2E47-90D4-435D6991B213}"/>
-    <hyperlink ref="G4" r:id="rId6" display="https://www.capfriendly.com/transactions/players/mikko-rantanen" xr:uid="{549F2D1A-D1CF-1F49-8A16-F6286E114370}"/>
-    <hyperlink ref="C6" r:id="rId7" display="https://www.capfriendly.com/players/gabriel-landeskog" xr:uid="{D4ED7888-8E40-E943-AB3D-3F0FF345E13F}"/>
-    <hyperlink ref="G6" r:id="rId8" display="https://www.capfriendly.com/transactions/players/gabriel-landeskog" xr:uid="{4AD04C7B-E41A-F245-9B31-CBEF30463F4A}"/>
-    <hyperlink ref="C7" r:id="rId9" display="https://www.capfriendly.com/players/nazem-kadri" xr:uid="{68AAA07D-A9E6-0E49-92A9-1CAA1EE3CFDD}"/>
-    <hyperlink ref="G7" r:id="rId10" display="https://www.capfriendly.com/transactions/players/nazem-kadri" xr:uid="{F43958CE-91CF-A94F-BC94-337882BBE6D5}"/>
-    <hyperlink ref="C8" r:id="rId11" display="https://www.capfriendly.com/players/artturi-lehkonen" xr:uid="{760540F6-7362-7045-9307-F3558AE60FB7}"/>
-    <hyperlink ref="G8" r:id="rId12" display="https://www.capfriendly.com/transactions/players/artturi-lehkonen" xr:uid="{097AB495-1AE9-6A44-B9BE-1FC8C850D1EB}"/>
-    <hyperlink ref="C10" r:id="rId13" display="https://www.capfriendly.com/players/andre-burakovsky" xr:uid="{C4859647-F409-D848-ADEE-16E4C9973773}"/>
-    <hyperlink ref="G10" r:id="rId14" display="https://www.capfriendly.com/transactions/players/andre-burakovsky" xr:uid="{61395C56-C821-1E49-87BE-9B635E5E44EF}"/>
-    <hyperlink ref="C11" r:id="rId15" display="https://www.capfriendly.com/players/alex-newhook" xr:uid="{02FC3768-E64F-5946-B88E-80585527D4F8}"/>
-    <hyperlink ref="G11" r:id="rId16" display="https://www.capfriendly.com/transactions/players/alex-newhook" xr:uid="{2E505E1A-DAE5-514A-8746-648D7C5CCB5C}"/>
-    <hyperlink ref="C12" r:id="rId17" display="https://www.capfriendly.com/players/jt-compher" xr:uid="{BF7C9555-6E55-B04D-BC18-FD9C47A7EC94}"/>
-    <hyperlink ref="G12" r:id="rId18" display="https://www.capfriendly.com/transactions/players/jt-compher" xr:uid="{351EFBDE-3CBD-F242-90F9-ED8CDF0D4338}"/>
-    <hyperlink ref="C14" r:id="rId19" display="https://www.capfriendly.com/players/logan-oconnor" xr:uid="{BCF772CE-A07D-1D44-BCD8-92760A3614BD}"/>
-    <hyperlink ref="G14" r:id="rId20" display="https://www.capfriendly.com/transactions/players/logan-oconnor" xr:uid="{CF74EC92-CAAF-5C4A-A531-16F7F06EE875}"/>
-    <hyperlink ref="C15" r:id="rId21" display="https://www.capfriendly.com/players/nico-sturm" xr:uid="{73AD8D46-F598-5743-B659-0F0E30099917}"/>
-    <hyperlink ref="G15" r:id="rId22" display="https://www.capfriendly.com/transactions/players/nico-sturm" xr:uid="{03888AD2-0568-1E43-92BE-007808140083}"/>
-    <hyperlink ref="C16" r:id="rId23" display="https://www.capfriendly.com/players/nicolas-aube-kubel" xr:uid="{F224CF37-063C-2B43-B30B-DFB09EC12EC0}"/>
-    <hyperlink ref="G16" r:id="rId24" display="https://www.capfriendly.com/transactions/players/nicolas-aube-kubel" xr:uid="{F49DC25F-18FD-6744-8D3F-FB3E713C0213}"/>
-    <hyperlink ref="C18" r:id="rId25" display="https://www.capfriendly.com/players/devon-toews" xr:uid="{9AF84DA7-EF11-D643-AC61-7AC7942E09A9}"/>
-    <hyperlink ref="G18" r:id="rId26" display="https://www.capfriendly.com/transactions/players/devon-toews" xr:uid="{4A8CD89A-DA2E-A541-8145-15A1EEC2559B}"/>
-    <hyperlink ref="C19" r:id="rId27" display="https://www.capfriendly.com/players/cale-makar" xr:uid="{3F76F548-875B-A641-A975-7B17942A79AC}"/>
-    <hyperlink ref="G19" r:id="rId28" display="https://www.capfriendly.com/transactions/players/cale-makar" xr:uid="{7E326B19-156E-6C4A-8500-95CC83033A71}"/>
-    <hyperlink ref="C21" r:id="rId29" display="https://www.capfriendly.com/players/samuel-girard" xr:uid="{F6C868D9-CAA3-9448-9996-65AF24CEBBC7}"/>
-    <hyperlink ref="G21" r:id="rId30" display="https://www.capfriendly.com/transactions/players/samuel-girard" xr:uid="{A318E47C-1D46-DA4F-B81E-C700D389B5C6}"/>
-    <hyperlink ref="C22" r:id="rId31" display="https://www.capfriendly.com/players/josh-manson" xr:uid="{F152EB8C-338E-C646-B7A2-F85CC594704D}"/>
-    <hyperlink ref="G22" r:id="rId32" display="https://www.capfriendly.com/transactions/players/josh-manson" xr:uid="{159355FA-589F-B84B-89B8-34261CDF09A1}"/>
-    <hyperlink ref="C24" r:id="rId33" display="https://www.capfriendly.com/players/bowen-byram" xr:uid="{DAA02B5B-0B7C-BF49-8F85-FF37B0E81C83}"/>
-    <hyperlink ref="G24" r:id="rId34" display="https://www.capfriendly.com/transactions/players/bowen-byram" xr:uid="{2EB0A885-E2F0-1743-B42C-003A06519D52}"/>
-    <hyperlink ref="C25" r:id="rId35" display="https://www.capfriendly.com/players/erik-johnson" xr:uid="{EEE03F92-54BB-F142-A848-F69AE38962DC}"/>
-    <hyperlink ref="G25" r:id="rId36" display="https://www.capfriendly.com/transactions/players/erik-johnson" xr:uid="{561BF80E-1BCE-0E43-94C9-DABA6CB1EE8F}"/>
-    <hyperlink ref="C27" r:id="rId37" display="https://www.capfriendly.com/players/darcy-kuemper" xr:uid="{C44C6371-DFCA-9E4F-922D-8DF454670B45}"/>
-    <hyperlink ref="G27" r:id="rId38" display="https://www.capfriendly.com/transactions/players/darcy-kuemper" xr:uid="{DE472C23-007D-E54B-8339-267A3C399D4A}"/>
-    <hyperlink ref="C28" r:id="rId39" display="https://www.capfriendly.com/players/pavel-francouz" xr:uid="{D0B57156-CDE6-4443-8AB9-15BF9FA9B791}"/>
-    <hyperlink ref="G28" r:id="rId40" display="https://www.capfriendly.com/transactions/players/pavel-francouz" xr:uid="{63031E33-300F-FF45-84CB-768FC0485D83}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId41"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733514A4-5B4C-4348-B1A5-1F17E7457D53}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J3"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7637,7 +7617,7 @@
     <col min="11" max="11" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7664,14 +7644,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2">
         <v>37</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>78</v>
       </c>
       <c r="D2" s="2"/>
@@ -7679,7 +7659,7 @@
       <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="8" t="s">
         <v>79</v>
       </c>
       <c r="I2" t="s">
@@ -7689,14 +7669,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2">
         <v>20</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="8" t="s">
         <v>80</v>
       </c>
       <c r="D3" s="2"/>
@@ -7714,14 +7694,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
         <v>24</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="8" t="s">
         <v>82</v>
       </c>
       <c r="D4" s="2"/>
@@ -7729,21 +7709,21 @@
       <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="8" t="s">
         <v>84</v>
       </c>
       <c r="D6" s="2"/>
@@ -7751,18 +7731,18 @@
       <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2">
         <v>16</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="8" t="s">
         <v>85</v>
       </c>
       <c r="D7" s="2"/>
@@ -7770,18 +7750,18 @@
       <c r="F7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="2">
         <v>86</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="8" t="s">
         <v>86</v>
       </c>
       <c r="D8" s="2"/>
@@ -7789,21 +7769,21 @@
       <c r="F8" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="2">
         <v>21</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="8" t="s">
         <v>87</v>
       </c>
       <c r="D10" s="2"/>
@@ -7811,18 +7791,18 @@
       <c r="F10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>11</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="8" t="s">
         <v>88</v>
       </c>
       <c r="D11" s="2"/>
@@ -7830,18 +7810,18 @@
       <c r="F11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="2">
         <v>71</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="8" t="s">
         <v>89</v>
       </c>
       <c r="D12" s="2"/>
@@ -7849,21 +7829,24 @@
       <c r="F12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="K12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="2">
         <v>48</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="8" t="s">
         <v>90</v>
       </c>
       <c r="D14" s="2"/>
@@ -7871,18 +7854,18 @@
       <c r="F14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="2">
         <v>82</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="8" t="s">
         <v>91</v>
       </c>
       <c r="D15" s="2"/>
@@ -7890,18 +7873,18 @@
       <c r="F15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="2">
         <v>88</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D16" s="2"/>
@@ -7909,7 +7892,7 @@
       <c r="F16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="8" t="s">
         <v>93</v>
       </c>
     </row>
@@ -7941,7 +7924,7 @@
       <c r="B18" s="2">
         <v>74</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="8" t="s">
         <v>94</v>
       </c>
       <c r="D18" s="2"/>
@@ -7949,7 +7932,7 @@
       <c r="F18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="8" t="s">
         <v>95</v>
       </c>
     </row>
@@ -7960,7 +7943,7 @@
       <c r="B19" s="2">
         <v>77</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="8" t="s">
         <v>96</v>
       </c>
       <c r="D19" s="2"/>
@@ -7968,7 +7951,7 @@
       <c r="F19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7982,7 +7965,7 @@
       <c r="B21" s="2">
         <v>76</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="8" t="s">
         <v>97</v>
       </c>
       <c r="D21" s="2"/>
@@ -7990,7 +7973,7 @@
       <c r="F21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -8001,7 +7984,7 @@
       <c r="B22" s="2">
         <v>22</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="8" t="s">
         <v>98</v>
       </c>
       <c r="D22" s="2"/>
@@ -8009,7 +7992,7 @@
       <c r="F22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="8" t="s">
         <v>99</v>
       </c>
     </row>
@@ -8023,7 +8006,7 @@
       <c r="B24" s="2">
         <v>7</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="8" t="s">
         <v>100</v>
       </c>
       <c r="D24" s="2"/>
@@ -8031,7 +8014,7 @@
       <c r="F24" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8042,7 +8025,7 @@
       <c r="B25" s="2">
         <v>28</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="8" t="s">
         <v>102</v>
       </c>
       <c r="D25" s="2"/>
@@ -8050,7 +8033,7 @@
       <c r="F25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8082,7 +8065,7 @@
       <c r="B27" s="2">
         <v>32</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="8" t="s">
         <v>103</v>
       </c>
       <c r="D27" s="2"/>
@@ -8090,7 +8073,7 @@
       <c r="F27" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8101,7 +8084,7 @@
       <c r="B28" s="2">
         <v>52</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="8" t="s">
         <v>104</v>
       </c>
       <c r="D28" s="2"/>
@@ -8109,63 +8092,22 @@
       <c r="F28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="8" t="s">
         <v>105</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://www.capfriendly.com/players/andrei-svechnikov" xr:uid="{D44699D3-B62C-ED41-B23E-91D5EB2A541C}"/>
-    <hyperlink ref="G2" r:id="rId2" display="https://www.capfriendly.com/transactions/players/andrei-svechnikov" xr:uid="{4788C43B-11B8-A04F-B760-6C9CC85E69F8}"/>
-    <hyperlink ref="C3" r:id="rId3" display="https://www.capfriendly.com/players/sebastian-aho" xr:uid="{AA422196-FB33-1443-865D-51310AE238A2}"/>
-    <hyperlink ref="C4" r:id="rId4" display="https://www.capfriendly.com/players/seth-jarvis" xr:uid="{A0EA9401-0CE1-114F-98AC-515A55352F8A}"/>
-    <hyperlink ref="G4" r:id="rId5" display="https://www.capfriendly.com/transactions/players/seth-jarvis" xr:uid="{A2BED73D-A3D7-FE4F-A5AD-ECBD7B80FA8B}"/>
-    <hyperlink ref="C6" r:id="rId6" display="https://www.capfriendly.com/players/max-domi" xr:uid="{EAD1D1C7-B330-7E40-B594-2B25DFAAD044}"/>
-    <hyperlink ref="G6" r:id="rId7" display="https://www.capfriendly.com/transactions/players/max-domi" xr:uid="{DD51B122-3C08-6745-AE61-CDD525BB0279}"/>
-    <hyperlink ref="C7" r:id="rId8" display="https://www.capfriendly.com/players/vincent-trocheck" xr:uid="{22A1D291-24BA-8243-86E2-3C46608C8F21}"/>
-    <hyperlink ref="G7" r:id="rId9" display="https://www.capfriendly.com/transactions/players/vincent-trocheck" xr:uid="{0053B579-6EBB-064C-B7E3-495146A2F923}"/>
-    <hyperlink ref="C8" r:id="rId10" display="https://www.capfriendly.com/players/teuvo-teravainen" xr:uid="{44F78BC3-7933-BB4C-807F-2080FFB837A3}"/>
-    <hyperlink ref="G8" r:id="rId11" display="https://www.capfriendly.com/transactions/players/teuvo-teravainen" xr:uid="{A7EBA1BB-E188-AC48-837C-8CEEACFDC864}"/>
-    <hyperlink ref="C10" r:id="rId12" display="https://www.capfriendly.com/players/nino-niederreiter" xr:uid="{9934629E-00CF-FC4F-84C4-D4F5829ABFB9}"/>
-    <hyperlink ref="G10" r:id="rId13" display="https://www.capfriendly.com/transactions/players/nino-niederreiter" xr:uid="{B1ADE03D-ADE9-7A42-9B03-60EBDACA4C44}"/>
-    <hyperlink ref="C11" r:id="rId14" display="https://www.capfriendly.com/players/jordan-staal" xr:uid="{7CEA924B-D340-DA44-AB48-8DC9A6CA9806}"/>
-    <hyperlink ref="G11" r:id="rId15" display="https://www.capfriendly.com/transactions/players/jordan-staal" xr:uid="{07F0553B-9729-1843-A93F-E9EDFF32AB1E}"/>
-    <hyperlink ref="C12" r:id="rId16" display="https://www.capfriendly.com/players/jesper-fast" xr:uid="{9A89703D-B5D5-2540-A4B5-798F7C6B8A84}"/>
-    <hyperlink ref="G12" r:id="rId17" display="https://www.capfriendly.com/transactions/players/jesper-fast" xr:uid="{F297B7F8-2F7A-E741-9654-62242E59D8E0}"/>
-    <hyperlink ref="C14" r:id="rId18" display="https://www.capfriendly.com/players/jordan-martinook" xr:uid="{76B7C33C-A0CE-4641-94E9-2F6243DB00F7}"/>
-    <hyperlink ref="G14" r:id="rId19" display="https://www.capfriendly.com/transactions/players/jordan-martinook" xr:uid="{646546F0-6A7B-3246-95CD-8BB1453FD4C0}"/>
-    <hyperlink ref="C15" r:id="rId20" display="https://www.capfriendly.com/players/jesperi-kotkaniemi" xr:uid="{15C6422A-FA6F-D641-96E9-DFB33EAB3DE6}"/>
-    <hyperlink ref="G15" r:id="rId21" display="https://www.capfriendly.com/transactions/players/jesperi-kotkaniemi" xr:uid="{AB01BA13-B737-EA49-BA6B-CE9FAAAB067B}"/>
-    <hyperlink ref="C16" r:id="rId22" display="https://www.capfriendly.com/players/martin-necas" xr:uid="{C5D86763-5049-C249-9691-4906240A59D6}"/>
-    <hyperlink ref="G16" r:id="rId23" display="https://www.capfriendly.com/transactions/players/martin-necas" xr:uid="{0ACECFD2-F1B1-B043-89D9-20326427B17D}"/>
-    <hyperlink ref="C18" r:id="rId24" display="https://www.capfriendly.com/players/jaccob-slavin" xr:uid="{8B83A6BE-A78A-574F-86E7-57EF99B83D01}"/>
-    <hyperlink ref="G18" r:id="rId25" display="https://www.capfriendly.com/transactions/players/jaccob-slavin" xr:uid="{6443BFFE-57E7-6F49-BA2E-96BF73483E9E}"/>
-    <hyperlink ref="C19" r:id="rId26" display="https://www.capfriendly.com/players/anthony-deangelo" xr:uid="{20C33609-1C1F-F34C-8CCD-DB521E09B3B4}"/>
-    <hyperlink ref="G19" r:id="rId27" display="https://www.capfriendly.com/transactions/players/anthony-deangelo" xr:uid="{B8B5A2B3-D9C4-F94F-91D3-DE47B7D18B8F}"/>
-    <hyperlink ref="C21" r:id="rId28" display="https://www.capfriendly.com/players/brady-skjei" xr:uid="{94DFA43E-4585-DB44-B1E7-59D9CFB3DDC6}"/>
-    <hyperlink ref="G21" r:id="rId29" display="https://www.capfriendly.com/transactions/players/brady-skjei" xr:uid="{9EB51A66-6CEA-8D42-88B1-10AF7F0255C2}"/>
-    <hyperlink ref="C22" r:id="rId30" display="https://www.capfriendly.com/players/brett-pesce" xr:uid="{2FCFF308-1F7E-9240-8928-9FD0CAE160CA}"/>
-    <hyperlink ref="G22" r:id="rId31" display="https://www.capfriendly.com/transactions/players/brett-pesce" xr:uid="{37BF641E-D952-E940-A685-2F94AE8BBA0B}"/>
-    <hyperlink ref="C24" r:id="rId32" display="https://www.capfriendly.com/players/brendan-smith" xr:uid="{E4833EE5-A89A-F440-A26A-00D4C31182BC}"/>
-    <hyperlink ref="G24" r:id="rId33" display="https://www.capfriendly.com/transactions/players/brendan-smith" xr:uid="{326D664E-736F-474C-94ED-C6EA83B1B894}"/>
-    <hyperlink ref="C25" r:id="rId34" display="https://www.capfriendly.com/players/ian-cole" xr:uid="{43C84265-44FB-5943-9DD6-2DFC71BA6642}"/>
-    <hyperlink ref="G25" r:id="rId35" display="https://www.capfriendly.com/transactions/players/ian-cole" xr:uid="{868046DC-FBD0-AC47-B80B-8F7EAC68C7DE}"/>
-    <hyperlink ref="C27" r:id="rId36" display="https://www.capfriendly.com/players/antti-raanta" xr:uid="{9FC0966E-8617-674A-94BB-CA2068A45E52}"/>
-    <hyperlink ref="G27" r:id="rId37" display="https://www.capfriendly.com/transactions/players/antti-raanta" xr:uid="{E4B97D74-C884-C849-9AD2-C30D191647A8}"/>
-    <hyperlink ref="C28" r:id="rId38" display="https://www.capfriendly.com/players/pyotr-kochetkov" xr:uid="{C1415DED-9C4E-8041-A732-5DAF0B613340}"/>
-    <hyperlink ref="G28" r:id="rId39" display="https://www.capfriendly.com/transactions/players/pyotr-kochetkov" xr:uid="{98083F3A-BBE8-0B48-AE6C-775D30B051C5}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId40"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774AE42D-608C-944B-B252-86121E7B1106}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="I5" sqref="I1:J5"/>
+    <sheetView topLeftCell="A8" zoomScale="150" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8173,7 +8115,7 @@
     <col min="11" max="11" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8200,14 +8142,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>106</v>
       </c>
       <c r="D2" s="2"/>
@@ -8215,7 +8157,7 @@
       <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="I2" t="s">
@@ -8225,14 +8167,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2">
         <v>34</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="8" t="s">
         <v>107</v>
       </c>
       <c r="D3" s="2"/>
@@ -8240,7 +8182,7 @@
       <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="8" t="s">
         <v>108</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -8250,14 +8192,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="8" t="s">
         <v>109</v>
       </c>
       <c r="D4" s="2"/>
@@ -8265,21 +8207,21 @@
       <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2">
         <v>65</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="8" t="s">
         <v>111</v>
       </c>
       <c r="D6" s="2"/>
@@ -8287,18 +8229,18 @@
       <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2">
         <v>91</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="8" t="s">
         <v>112</v>
       </c>
       <c r="D7" s="2"/>
@@ -8306,18 +8248,18 @@
       <c r="F7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="2">
         <v>25</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="8" t="s">
         <v>113</v>
       </c>
       <c r="D8" s="2"/>
@@ -8325,21 +8267,21 @@
       <c r="F8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="2">
         <v>47</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="8" t="s">
         <v>114</v>
       </c>
       <c r="D10" s="2"/>
@@ -8347,18 +8289,18 @@
       <c r="F10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>64</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="8" t="s">
         <v>116</v>
       </c>
       <c r="D11" s="2"/>
@@ -8366,18 +8308,18 @@
       <c r="F11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="2">
         <v>88</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="8" t="s">
         <v>117</v>
       </c>
       <c r="D12" s="2"/>
@@ -8385,21 +8327,24 @@
       <c r="F12" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="8" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="K12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="2">
         <v>43</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="8" t="s">
         <v>119</v>
       </c>
       <c r="D14" s="2"/>
@@ -8407,18 +8352,18 @@
       <c r="F14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="2">
         <v>11</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="8" t="s">
         <v>120</v>
       </c>
       <c r="D15" s="2"/>
@@ -8426,18 +8371,18 @@
       <c r="F15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="2">
         <v>24</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="8" t="s">
         <v>121</v>
       </c>
       <c r="D16" s="2"/>
@@ -8445,7 +8390,7 @@
       <c r="F16" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8477,7 +8422,7 @@
       <c r="B18" s="2">
         <v>44</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="8" t="s">
         <v>122</v>
       </c>
       <c r="D18" s="2"/>
@@ -8485,7 +8430,7 @@
       <c r="F18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="8" t="s">
         <v>123</v>
       </c>
     </row>
@@ -8496,7 +8441,7 @@
       <c r="B19" s="2">
         <v>46</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="8" t="s">
         <v>124</v>
       </c>
       <c r="D19" s="2"/>
@@ -8504,7 +8449,7 @@
       <c r="F19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -8518,7 +8463,7 @@
       <c r="B21" s="2">
         <v>8</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="8" t="s">
         <v>125</v>
       </c>
       <c r="D21" s="2"/>
@@ -8526,7 +8471,7 @@
       <c r="F21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -8537,7 +8482,7 @@
       <c r="B22" s="2">
         <v>78</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="8" t="s">
         <v>126</v>
       </c>
       <c r="D22" s="2"/>
@@ -8545,7 +8490,7 @@
       <c r="F22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8559,7 +8504,7 @@
       <c r="B24" s="2">
         <v>55</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="8" t="s">
         <v>127</v>
       </c>
       <c r="D24" s="2"/>
@@ -8567,7 +8512,7 @@
       <c r="F24" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -8578,7 +8523,7 @@
       <c r="B25" s="2">
         <v>37</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="8" t="s">
         <v>128</v>
       </c>
       <c r="D25" s="2"/>
@@ -8586,7 +8531,7 @@
       <c r="F25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="8" t="s">
         <v>129</v>
       </c>
     </row>
@@ -8618,7 +8563,7 @@
       <c r="B27" s="2">
         <v>36</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="8" t="s">
         <v>130</v>
       </c>
       <c r="D27" s="2"/>
@@ -8626,7 +8571,7 @@
       <c r="F27" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -8637,7 +8582,7 @@
       <c r="B28" s="2">
         <v>50</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="8" t="s">
         <v>131</v>
       </c>
       <c r="D28" s="2"/>
@@ -8645,64 +8590,22 @@
       <c r="F28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="8" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://www.capfriendly.com/players/alexander-kerfoot" xr:uid="{1C5A0173-6D32-EB46-91F1-F73FAE9052CD}"/>
-    <hyperlink ref="G2" r:id="rId2" display="https://www.capfriendly.com/transactions/players/alexander-kerfoot" xr:uid="{33C0C235-84A8-CC46-8004-C82723E3773A}"/>
-    <hyperlink ref="C3" r:id="rId3" display="https://www.capfriendly.com/players/auston-matthews" xr:uid="{999EF82D-A17D-1B4A-ABC1-55C90EADEDFA}"/>
-    <hyperlink ref="G3" r:id="rId4" display="https://www.capfriendly.com/transactions/players/auston-matthews" xr:uid="{BB0B39E4-3EB0-C74E-84A3-84A672681679}"/>
-    <hyperlink ref="C4" r:id="rId5" display="https://www.capfriendly.com/players/mitchell-marner" xr:uid="{E720A0FB-92BC-E442-8C52-BB4D6CF11CE6}"/>
-    <hyperlink ref="G4" r:id="rId6" display="https://www.capfriendly.com/transactions/players/mitchell-marner" xr:uid="{D557C721-4272-1041-812A-3C933F35387F}"/>
-    <hyperlink ref="C6" r:id="rId7" display="https://www.capfriendly.com/players/ilya-mikheyev" xr:uid="{961BAE51-6B74-294A-A2C9-D43DE238C557}"/>
-    <hyperlink ref="G6" r:id="rId8" display="https://www.capfriendly.com/transactions/players/ilya-mikheyev" xr:uid="{4065570E-713F-6D4F-99DC-D649713F7E64}"/>
-    <hyperlink ref="C7" r:id="rId9" display="https://www.capfriendly.com/players/john-tavares" xr:uid="{E13B6A98-F8C7-0E4D-A646-7E171163DD33}"/>
-    <hyperlink ref="G7" r:id="rId10" display="https://www.capfriendly.com/transactions/players/john-tavares" xr:uid="{1338FE66-236D-A946-967E-58A81152AE6C}"/>
-    <hyperlink ref="C8" r:id="rId11" display="https://www.capfriendly.com/players/ondrej-kase" xr:uid="{B405495A-65CC-BF41-B542-D89BFEC094AE}"/>
-    <hyperlink ref="G8" r:id="rId12" display="https://www.capfriendly.com/transactions/players/ondrej-kase" xr:uid="{99571F3D-829D-1A4B-B496-B8147CA72F79}"/>
-    <hyperlink ref="C10" r:id="rId13" display="https://www.capfriendly.com/players/pierre-engvall" xr:uid="{3DD8F5B3-DBA7-4341-8B9A-757DDF267700}"/>
-    <hyperlink ref="G10" r:id="rId14" display="https://www.capfriendly.com/transactions/players/pierre-engvall" xr:uid="{1540707D-DFF2-7545-B78E-B8254C8F4A86}"/>
-    <hyperlink ref="C11" r:id="rId15" display="https://www.capfriendly.com/players/david-kampf" xr:uid="{EA0D5C3B-B910-A342-8788-CE0669DC280E}"/>
-    <hyperlink ref="G11" r:id="rId16" display="https://www.capfriendly.com/transactions/players/david-kampf" xr:uid="{660A7EF6-A128-A144-A60A-903C0F450F03}"/>
-    <hyperlink ref="C12" r:id="rId17" display="https://www.capfriendly.com/players/william-nylander" xr:uid="{9021DE1B-19E7-F644-94FD-0FBAB44BBF5E}"/>
-    <hyperlink ref="G12" r:id="rId18" display="https://www.capfriendly.com/transactions/players/william-nylander" xr:uid="{07826E28-A029-2749-ABFA-E46373EC2B8B}"/>
-    <hyperlink ref="C14" r:id="rId19" display="https://www.capfriendly.com/players/kyle-clifford" xr:uid="{25235D41-7800-3D4B-A48D-9106A79B7321}"/>
-    <hyperlink ref="G14" r:id="rId20" display="https://www.capfriendly.com/transactions/players/kyle-clifford" xr:uid="{D1344EF5-45B2-D947-B72D-5E05AF99D371}"/>
-    <hyperlink ref="C15" r:id="rId21" display="https://www.capfriendly.com/players/colin-blackwell" xr:uid="{1134C2B3-461A-C54C-BDBD-74D90590A1FC}"/>
-    <hyperlink ref="G15" r:id="rId22" display="https://www.capfriendly.com/transactions/players/colin-blackwell" xr:uid="{0E9F2D7C-E7AB-0440-890C-70F91DC5792C}"/>
-    <hyperlink ref="C16" r:id="rId23" display="https://www.capfriendly.com/players/wayne-simmonds" xr:uid="{8105AE54-FFE5-6D41-804F-7C3EFDEB7D34}"/>
-    <hyperlink ref="G16" r:id="rId24" display="https://www.capfriendly.com/transactions/players/wayne-simmonds" xr:uid="{257265DF-A524-D540-804B-3633255CD4D8}"/>
-    <hyperlink ref="C18" r:id="rId25" display="https://www.capfriendly.com/players/morgan-rielly" xr:uid="{AA81B645-96DC-C944-846F-F9C66E871438}"/>
-    <hyperlink ref="G18" r:id="rId26" display="https://www.capfriendly.com/transactions/players/morgan-rielly" xr:uid="{A9DADE8D-9C4D-8E4B-A922-696F4FCAF6F5}"/>
-    <hyperlink ref="C19" r:id="rId27" display="https://www.capfriendly.com/players/ilya-lyubushkin" xr:uid="{0B826D0D-7078-AC40-955B-C82977DC22ED}"/>
-    <hyperlink ref="G19" r:id="rId28" display="https://www.capfriendly.com/transactions/players/ilya-lyubushkin" xr:uid="{191B3195-45DB-6B48-AA24-732D77435A8D}"/>
-    <hyperlink ref="C21" r:id="rId29" display="https://www.capfriendly.com/players/jake-muzzin" xr:uid="{138EBE75-1206-B24D-928F-3F51CFF6E55B}"/>
-    <hyperlink ref="G21" r:id="rId30" display="https://www.capfriendly.com/transactions/players/jake-muzzin" xr:uid="{7F4004F2-232B-714E-A532-10A92329E683}"/>
-    <hyperlink ref="C22" r:id="rId31" display="https://www.capfriendly.com/players/tj-brodie" xr:uid="{CB0D3CB1-0232-474E-8A19-A3DBF27A2314}"/>
-    <hyperlink ref="G22" r:id="rId32" display="https://www.capfriendly.com/transactions/players/tj-brodie" xr:uid="{6C5A0C4E-BFC7-A643-BD33-765000A047E0}"/>
-    <hyperlink ref="C24" r:id="rId33" display="https://www.capfriendly.com/players/mark-giordano" xr:uid="{293BFFE7-A225-364C-BE03-78D982924250}"/>
-    <hyperlink ref="G24" r:id="rId34" display="https://www.capfriendly.com/transactions/players/mark-giordano" xr:uid="{0742748B-E16F-5C4F-8113-C6A2E88BAE65}"/>
-    <hyperlink ref="C25" r:id="rId35" display="https://www.capfriendly.com/players/timothy-liljegren" xr:uid="{095ABF51-85E4-1A46-9330-3D8837292892}"/>
-    <hyperlink ref="G25" r:id="rId36" display="https://www.capfriendly.com/transactions/players/timothy-liljegren" xr:uid="{1E26385E-07EF-7D4D-950C-718DB1E5F277}"/>
-    <hyperlink ref="C27" r:id="rId37" display="https://www.capfriendly.com/players/jack-campbell" xr:uid="{94ADC375-D3D3-B248-827F-95BB47969B19}"/>
-    <hyperlink ref="G27" r:id="rId38" display="https://www.capfriendly.com/transactions/players/jack-campbell" xr:uid="{EDDE7BE8-ED41-454E-8D0E-179ACE7D040D}"/>
-    <hyperlink ref="C28" r:id="rId39" display="https://www.capfriendly.com/players/erik-kallgren" xr:uid="{6AF8C3DB-E705-0646-813D-F8F23F8AB5D8}"/>
-    <hyperlink ref="G28" r:id="rId40" display="https://www.capfriendly.com/transactions/players/erik-kallgren" xr:uid="{6F7AED10-2842-4348-B6FC-4078160FE0ED}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId41"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E31170-5519-E242-95D1-96DE8E863B8D}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J4"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8710,7 +8613,7 @@
     <col min="11" max="11" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8737,14 +8640,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2">
         <v>97</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>132</v>
       </c>
       <c r="D2" s="2"/>
@@ -8752,7 +8655,7 @@
       <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="8" t="s">
         <v>133</v>
       </c>
       <c r="I2" t="s">
@@ -8762,14 +8665,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2">
         <v>38</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="8" t="s">
         <v>134</v>
       </c>
       <c r="D3" s="2"/>
@@ -8777,7 +8680,7 @@
       <c r="F3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -8787,14 +8690,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
         <v>36</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="8" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="2"/>
@@ -8802,21 +8705,21 @@
       <c r="F4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2">
         <v>22</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="8" t="s">
         <v>136</v>
       </c>
       <c r="D6" s="2"/>
@@ -8824,18 +8727,18 @@
       <c r="F6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2">
         <v>89</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="8" t="s">
         <v>137</v>
       </c>
       <c r="D7" s="2"/>
@@ -8843,18 +8746,18 @@
       <c r="F7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="2">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="8" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="2"/>
@@ -8862,21 +8765,21 @@
       <c r="F8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="2">
         <v>18</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="8" t="s">
         <v>140</v>
       </c>
       <c r="D10" s="2"/>
@@ -8884,18 +8787,18 @@
       <c r="F10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>14</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="8" t="s">
         <v>142</v>
       </c>
       <c r="D11" s="2"/>
@@ -8903,18 +8806,18 @@
       <c r="F11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="8" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="2">
         <v>17</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="8" t="s">
         <v>144</v>
       </c>
       <c r="D12" s="2"/>
@@ -8922,21 +8825,24 @@
       <c r="F12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="K12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="2">
         <v>44</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="8" t="s">
         <v>145</v>
       </c>
       <c r="D14" s="2"/>
@@ -8944,18 +8850,18 @@
       <c r="F14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="2">
         <v>10</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="8" t="s">
         <v>146</v>
       </c>
       <c r="D15" s="2"/>
@@ -8963,18 +8869,18 @@
       <c r="F15" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="2">
         <v>21</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="8" t="s">
         <v>148</v>
       </c>
       <c r="D16" s="2"/>
@@ -8982,7 +8888,7 @@
       <c r="F16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="8" t="s">
         <v>149</v>
       </c>
     </row>
@@ -9014,7 +8920,7 @@
       <c r="B18" s="2">
         <v>5</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="8" t="s">
         <v>150</v>
       </c>
       <c r="D18" s="2"/>
@@ -9022,7 +8928,7 @@
       <c r="F18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -9033,7 +8939,7 @@
       <c r="B19" s="2">
         <v>46</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="8" t="s">
         <v>151</v>
       </c>
       <c r="D19" s="2"/>
@@ -9041,7 +8947,7 @@
       <c r="F19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -9055,7 +8961,7 @@
       <c r="B21" s="2">
         <v>25</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="8" t="s">
         <v>152</v>
       </c>
       <c r="D21" s="2"/>
@@ -9063,7 +8969,7 @@
       <c r="F21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="8" t="s">
         <v>153</v>
       </c>
     </row>
@@ -9074,7 +8980,7 @@
       <c r="B22" s="2">
         <v>24</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="8" t="s">
         <v>154</v>
       </c>
       <c r="D22" s="2"/>
@@ -9082,7 +8988,7 @@
       <c r="F22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="8" t="s">
         <v>155</v>
       </c>
     </row>
@@ -9096,7 +9002,7 @@
       <c r="B24" s="2">
         <v>4</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="8" t="s">
         <v>156</v>
       </c>
       <c r="D24" s="2"/>
@@ -9104,7 +9010,7 @@
       <c r="F24" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9115,7 +9021,7 @@
       <c r="B25" s="2">
         <v>7</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="8" t="s">
         <v>157</v>
       </c>
       <c r="D25" s="2"/>
@@ -9123,7 +9029,7 @@
       <c r="F25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9155,7 +9061,7 @@
       <c r="B27" s="2">
         <v>29</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="8" t="s">
         <v>158</v>
       </c>
       <c r="D27" s="2"/>
@@ -9163,7 +9069,7 @@
       <c r="F27" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -9174,7 +9080,7 @@
       <c r="B28" s="2">
         <v>33</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="8" t="s">
         <v>159</v>
       </c>
       <c r="D28" s="2"/>
@@ -9182,54 +9088,12 @@
       <c r="F28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="8" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://www.capfriendly.com/players/kirill-kaprizov" xr:uid="{D485BF4A-AD7E-0B43-B7D0-E6A0B9BA2AC0}"/>
-    <hyperlink ref="G2" r:id="rId2" display="https://www.capfriendly.com/transactions/players/kirill-kaprizov" xr:uid="{5D9855BD-96AD-EC46-92AE-EAFEC1B0FAA1}"/>
-    <hyperlink ref="C3" r:id="rId3" display="https://www.capfriendly.com/players/ryan-hartman" xr:uid="{CEC267FB-631B-A148-AE9A-382B1BCC0B1E}"/>
-    <hyperlink ref="G3" r:id="rId4" display="https://www.capfriendly.com/transactions/players/ryan-hartman" xr:uid="{0E7DA370-1C42-094F-B82D-6A738626200B}"/>
-    <hyperlink ref="C4" r:id="rId5" display="https://www.capfriendly.com/players/mats-zuccarello" xr:uid="{EA2E8F23-78F7-6F46-8E88-0AD85B8744C9}"/>
-    <hyperlink ref="G4" r:id="rId6" display="https://www.capfriendly.com/transactions/players/mats-zuccarello" xr:uid="{71FB39BD-72F9-FF4D-862F-3E619512431E}"/>
-    <hyperlink ref="C6" r:id="rId7" display="https://www.capfriendly.com/players/kevin-fiala" xr:uid="{5E87DAF9-3E52-BB4F-8B54-F2FCA1153C0F}"/>
-    <hyperlink ref="G6" r:id="rId8" display="https://www.capfriendly.com/transactions/players/kevin-fiala" xr:uid="{DF2BF859-28B0-E64E-B71E-6DD0D8412EDC}"/>
-    <hyperlink ref="C7" r:id="rId9" display="https://www.capfriendly.com/players/frederick-gaudreau" xr:uid="{2C7890E4-8EAA-2741-916D-8B9A6EED84D3}"/>
-    <hyperlink ref="G7" r:id="rId10" display="https://www.capfriendly.com/transactions/players/frederick-gaudreau" xr:uid="{77E4F874-7E5B-BD49-8484-E21D85243E4B}"/>
-    <hyperlink ref="C8" r:id="rId11" display="https://www.capfriendly.com/players/matthew-boldy" xr:uid="{537551E5-83AD-1D49-9A62-E9340B006399}"/>
-    <hyperlink ref="G8" r:id="rId12" display="https://www.capfriendly.com/transactions/players/matthew-boldy" xr:uid="{AC38ACAA-F5DD-514D-B8DB-07C5AF53CB07}"/>
-    <hyperlink ref="C10" r:id="rId13" display="https://www.capfriendly.com/players/jordan-greenway" xr:uid="{CD02F0E3-0B14-6D4F-956F-E80E3BA59DA4}"/>
-    <hyperlink ref="G10" r:id="rId14" display="https://www.capfriendly.com/transactions/players/jordan-greenway" xr:uid="{7C8499A0-19AA-A045-BE47-C475936E7A14}"/>
-    <hyperlink ref="C11" r:id="rId15" display="https://www.capfriendly.com/players/joel-eriksson-ek" xr:uid="{763FCD17-E0A9-974D-9121-6F774B4492DC}"/>
-    <hyperlink ref="G11" r:id="rId16" display="https://www.capfriendly.com/transactions/players/joel-eriksson-ek" xr:uid="{34F47CAA-E29E-D84C-977B-6FF171CEF31A}"/>
-    <hyperlink ref="C12" r:id="rId17" display="https://www.capfriendly.com/players/marcus-foligno" xr:uid="{EE144F2B-FC05-7849-BE1B-722AE09E466B}"/>
-    <hyperlink ref="G12" r:id="rId18" display="https://www.capfriendly.com/transactions/players/marcus-foligno" xr:uid="{294302DB-C1C3-6A47-AD15-09D10441F913}"/>
-    <hyperlink ref="C14" r:id="rId19" display="https://www.capfriendly.com/players/nicolas-deslauriers" xr:uid="{AFEFB17F-7D61-EA49-8364-B5D34E4389B9}"/>
-    <hyperlink ref="G14" r:id="rId20" display="https://www.capfriendly.com/transactions/players/nicolas-deslauriers" xr:uid="{B4882633-9D71-4543-A575-F5904AAFE94D}"/>
-    <hyperlink ref="C15" r:id="rId21" display="https://www.capfriendly.com/players/tyson-jost" xr:uid="{FE0F8D1F-C362-CF49-87CC-29D4325B1BE7}"/>
-    <hyperlink ref="G15" r:id="rId22" display="https://www.capfriendly.com/transactions/players/tyson-jost" xr:uid="{D5BF52F3-F590-C648-87CC-6E0E79F9D1F3}"/>
-    <hyperlink ref="C16" r:id="rId23" display="https://www.capfriendly.com/players/brandon-duhaime" xr:uid="{0D8E3308-7CCF-4A47-A835-C5D316E87321}"/>
-    <hyperlink ref="G16" r:id="rId24" display="https://www.capfriendly.com/transactions/players/brandon-duhaime" xr:uid="{F6367C36-EB9E-104A-9498-EFABC9B5FA9B}"/>
-    <hyperlink ref="C18" r:id="rId25" display="https://www.capfriendly.com/players/jacob-middleton" xr:uid="{EB63810A-F8EE-084A-A7F6-C92DA67EF2F9}"/>
-    <hyperlink ref="G18" r:id="rId26" display="https://www.capfriendly.com/transactions/players/jacob-middleton" xr:uid="{9F17A11B-1B8B-C949-B156-87B0EA177DAB}"/>
-    <hyperlink ref="C19" r:id="rId27" display="https://www.capfriendly.com/players/jared-spurgeon" xr:uid="{290B09E0-8DAA-8445-90A6-CFD090E0079E}"/>
-    <hyperlink ref="G19" r:id="rId28" display="https://www.capfriendly.com/transactions/players/jared-spurgeon" xr:uid="{BA6EE78E-37AE-444F-A318-646D3A5A465F}"/>
-    <hyperlink ref="C21" r:id="rId29" display="https://www.capfriendly.com/players/jonas-brodin" xr:uid="{F5C46620-8F99-9F46-8711-47E20CE25A00}"/>
-    <hyperlink ref="G21" r:id="rId30" display="https://www.capfriendly.com/transactions/players/jonas-brodin" xr:uid="{C37A0B8D-3CB7-4C40-BD75-68109648B94D}"/>
-    <hyperlink ref="C22" r:id="rId31" display="https://www.capfriendly.com/players/matt-dumba" xr:uid="{FBCBC402-A085-D04B-B2F0-2D581C0C0989}"/>
-    <hyperlink ref="G22" r:id="rId32" display="https://www.capfriendly.com/transactions/players/matt-dumba" xr:uid="{24FC80CF-23CC-4949-9877-ED38BACA9F16}"/>
-    <hyperlink ref="C24" r:id="rId33" display="https://www.capfriendly.com/players/jon-merrill" xr:uid="{0C41F075-5663-764E-B130-6E72AB6C12AD}"/>
-    <hyperlink ref="G24" r:id="rId34" display="https://www.capfriendly.com/transactions/players/jon-merrill" xr:uid="{7CEB13E5-148E-5648-AF3F-8E194E60E588}"/>
-    <hyperlink ref="C25" r:id="rId35" display="https://www.capfriendly.com/players/dmitry-kulikov" xr:uid="{161E5200-D470-B949-975F-6EF0002F7A71}"/>
-    <hyperlink ref="G25" r:id="rId36" display="https://www.capfriendly.com/transactions/players/dmitry-kulikov" xr:uid="{EDD36D7E-F165-374E-AE71-D25F35219CE3}"/>
-    <hyperlink ref="C27" r:id="rId37" display="https://www.capfriendly.com/players/marc-andre-fleury1" xr:uid="{303B3D02-B591-CA43-850F-D512F7BB141A}"/>
-    <hyperlink ref="G27" r:id="rId38" display="https://www.capfriendly.com/transactions/players/marc-andre-fleury1" xr:uid="{02C7C02E-8655-3640-8E20-492676E94C45}"/>
-    <hyperlink ref="C28" r:id="rId39" display="https://www.capfriendly.com/players/cam-talbot" xr:uid="{B7E00081-EC86-0041-8A38-7B32D6A2C997}"/>
-    <hyperlink ref="G28" r:id="rId40" display="https://www.capfriendly.com/transactions/players/cam-talbot" xr:uid="{4DF22CFD-FB70-5E4E-B3C8-1A34E3F750AA}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId41"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>